--- a/JenkinsMaven/TestData/TestDataFB.xlsx
+++ b/JenkinsMaven/TestData/TestDataFB.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\JAVA\PageObjectModelData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CF15C2-C79B-4D76-83EE-27BD97CE0EF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BE60CA16-09FD-4DB9-BB01-2B30CB19A7BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19460" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -362,10 +358,13 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
